--- a/doc/RMMM.xlsx
+++ b/doc/RMMM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucpl\Projects\online-shop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psa\WebstormProjects\online-shop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FD2364-21FF-41A6-9B5F-6A3FAEE04E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17E49F79-12A7-42FB-BC9D-F64FDA605142}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Risiko ID</t>
   </si>
@@ -72,13 +71,58 @@
   </si>
   <si>
     <t>Letztes Änderungsdatum</t>
+  </si>
+  <si>
+    <t>Ausfall von Teammitgliedern</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>offen</t>
+  </si>
+  <si>
+    <t>Sehr Hoch</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>keiner</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Team/ personell</t>
+  </si>
+  <si>
+    <t>Kritische Aufgaben werden auf die restlichen Teammitglider verteilt</t>
+  </si>
+  <si>
+    <t>frühzeitige Kommunikation von Ausfällen</t>
+  </si>
+  <si>
+    <t>Rechtzeitiges einlerne der weniger erfahrenen Teammitglieder durch die erfahrenen Teammitglieder</t>
+  </si>
+  <si>
+    <t>Mangel an Erfahrung mit eingesetzter Technologie</t>
+  </si>
+  <si>
+    <t>Teammitglied kann aufgrund Krankheit etc. Tätichkeiten nicht erledigen</t>
+  </si>
+  <si>
+    <t>Einzelnen Teammitglidern fällt es schwer mit der eingesetzten Technologie zurecht zu kommen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +214,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -510,250 +571,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFC478-65A2-4ABC-9431-BF890A056E22}">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L3" sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.09765625" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" customWidth="1"/>
+    <col min="11" max="11" width="6.09765625" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="28.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+    <row r="2" spans="1:12" ht="55.8" thickTop="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="82.8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/RMMM.xlsx
+++ b/doc/RMMM.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Risiko ID</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>Einzelnen Teammitglidern fällt es schwer mit der eingesetzten Technologie zurecht zu kommen</t>
+  </si>
+  <si>
+    <t>Racecondition</t>
+  </si>
+  <si>
+    <t>Der Letzte Artikel im Bestand wird von zwei oder Mehreren käufern gleichzeitig gekauft</t>
+  </si>
+  <si>
+    <t>Arikel werden im Warenkorb reserviert</t>
+  </si>
+  <si>
+    <t>Stefan kümmert sich drum</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>technisch</t>
   </si>
 </sst>
 </file>
@@ -575,7 +593,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="A1:L3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -708,19 +726,43 @@
         <v>45762</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+    <row r="4" spans="1:12" ht="55.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7">
+        <v>45763</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="8"/>
